--- a/FACEBOOK DEFECT REPORT.xlsx
+++ b/FACEBOOK DEFECT REPORT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Defect ID</t>
   </si>
@@ -106,13 +106,16 @@
   </si>
   <si>
     <t>Defect_01</t>
+  </si>
+  <si>
+    <t>1)https://www.facebook.com 2)Press enter3) click on home page 4)click on search button   without filling data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +128,19 @@
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -145,10 +161,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,8 +185,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,8 +501,8 @@
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
@@ -534,7 +558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="90">
+    <row r="2" spans="1:16" ht="120">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -570,6 +594,9 @@
       </c>
       <c r="L2" t="s">
         <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>26</v>
@@ -589,8 +616,11 @@
       <c r="A5" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" display="https://www.facebook.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
